--- a/字符表/一级字符表.xlsx
+++ b/字符表/一级字符表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A60BB4-B3F9-4B2F-BABD-AA351812DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E82C9D-28E4-40B3-8EEB-74C1FF13BDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单字节" sheetId="1" r:id="rId1"/>
@@ -5492,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="87" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -5710,8 +5710,8 @@
       <c r="P4" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>649</v>
+      <c r="Q4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
@@ -5837,16 +5837,16 @@
         <v>663</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>664</v>
@@ -5861,16 +5861,16 @@
         <v>667</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>649</v>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1">
@@ -5984,13 +5984,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>699</v>
@@ -6017,16 +6017,16 @@
         <v>705</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>706</v>
@@ -6049,40 +6049,40 @@
         <v>710</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>649</v>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1">
@@ -6386,7 +6386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
+    <sheetView zoomScale="121" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -8228,7 +8228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
